--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -102,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,28 +124,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -155,77 +133,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,21 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,14 +240,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +289,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,85 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,66 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +507,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -525,6 +529,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,24 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,159 +583,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1152,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1405,7 +1398,9 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2325E1-8B5B-499B-844E-1C503739514C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,11 +126,19 @@
   <si>
     <t>王军</t>
   </si>
+  <si>
+    <t>异常捕获能否支持事务回滚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,6 +394,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -420,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -876,6 +919,32 @@
       </c>
       <c r="J9" s="5"/>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43431</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5">
+        <v>43431</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
@@ -884,21 +953,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"严重"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"一般"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"致命"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"一般"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"严重"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"前台,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"提示,一般,严重,致命"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2325E1-8B5B-499B-844E-1C503739514C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,11 +133,27 @@
     <t>赵晔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限树是否显示当前用户的上层树结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时遗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙晓光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,14 +279,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
-        <color theme="0"/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -287,11 +324,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,7 +343,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,7 +361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,23 +436,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -446,23 +471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,11 +646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -945,18 +953,44 @@
         <v>43431</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43435</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"提示"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"一般"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"致命"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -964,10 +998,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"前台,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"提示,一般,严重,致命"</formula1>
     </dataValidation>
   </dataValidations>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,54 @@
   </si>
   <si>
     <t>孙晓光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel时间单元格处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈鹏涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入excel的文件大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel数据有一条有问题，其他的不能正常导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格时间格式要做校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时遗留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,28 +330,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -342,11 +368,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -647,17 +695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -731,7 +779,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -759,7 +807,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -979,21 +1027,137 @@
         <v>36</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43441</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="13">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43441</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="13">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43441</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="13">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43441</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13">
+        <v>43441</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"提示"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"一般"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"致命"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"严重"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -1,219 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7800"/>
+    <workbookView windowWidth="15825" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码类型</t>
+  </si>
+  <si>
+    <t>问题描述</t>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展跟踪</t>
   </si>
   <si>
     <t>问题提出人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预计解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进展跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙晓光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>【范例】师范的例子</t>
+  </si>
+  <si>
+    <t>提示</t>
   </si>
   <si>
     <t>2018/11/27 11:00 问题验证通过
 2018/11/26 20:00 修改代码存在问题，需要重新测试
 2018/11/26 16:00 孙晓光定位出原因为业务逻辑实现错误
 2018/11/26 11:00 新发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-  </si>
-  <si>
-    <t>代码类型</t>
-  </si>
-  <si>
-    <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
+  </si>
+  <si>
+    <t>李剑</t>
+  </si>
+  <si>
+    <t>孙晓光</t>
+  </si>
+  <si>
+    <t>查询的时候支持ALL选项，支持非根节点查询</t>
   </si>
   <si>
     <t>一般</t>
   </si>
   <si>
+    <t>赵晔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增项目组的时候备选项目经理怎么获取    </t>
+  </si>
+  <si>
+    <t>严重</t>
+  </si>
+  <si>
+    <t>新增项目组的时候，变动的表格很多，需要做事务处理</t>
+  </si>
+  <si>
+    <t>岗位关系表中新增对应的外键（项目组关系表中的nodeID）</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>岗位关系表关系怎么建表</t>
+  </si>
+  <si>
     <t>致命</t>
   </si>
   <si>
-    <t>严重</t>
-  </si>
-  <si>
-    <t>【范例】师范的例子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">新增项目组的时候备选项目经理怎么获取    </t>
-  </si>
-  <si>
-    <t>新增项目组的时候，变动的表格很多，需要做事务处理</t>
-  </si>
-  <si>
-    <t>岗位关系表中新增对应的外键（项目组关系表中的nodeID）</t>
-  </si>
-  <si>
-    <t>岗位关系表关系怎么建表</t>
-  </si>
-  <si>
     <t>将密码使用md5加密存取到数据库中</t>
   </si>
   <si>
+    <t>王军</t>
+  </si>
+  <si>
     <t>类名命名不规范</t>
   </si>
   <si>
-    <t>查询的时候支持ALL选项，支持非根节点查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵晔</t>
-  </si>
-  <si>
-    <t>孙晓光</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>李剑</t>
-  </si>
-  <si>
-    <t>王军</t>
-  </si>
-  <si>
     <t>异常捕获能否支持事务回滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵晔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权限树是否显示当前用户的上层树结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暂时遗留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙晓光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>excel时间单元格处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
   </si>
   <si>
     <t>屈鹏涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导入excel的文件大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格时间格式要做校验</t>
   </si>
   <si>
     <t>excel数据有一条有问题，其他的不能正常导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元格时间格式要做校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时遗留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建事务同产业线去重</t>
+  </si>
+  <si>
+    <t>罗帆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -221,7 +161,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,7 +168,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -237,11 +175,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +342,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,76 +539,376 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -343,38 +917,28 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -385,9 +949,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -401,9 +963,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -416,7 +975,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -451,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +1045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -689,487 +1248,516 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.25" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="99" spans="1:10">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43430</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>43431</v>
+      </c>
+      <c r="J2" s="9">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="99" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10">
-        <v>43430</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10">
-        <v>43431</v>
-      </c>
-      <c r="J2" s="10">
-        <v>43431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" ht="33" spans="1:10">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" ht="33" spans="1:10">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="13">
+        <v>43431</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43430</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="I9" s="13">
         <v>43431</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J9" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5">
-        <v>43430</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="5">
-        <v>43431</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5">
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13">
         <v>43431</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="13">
         <v>43431</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="13">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
         <v>43435</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="13">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
         <v>43441</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="13">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3">
         <v>43441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="13">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
         <v>43441</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="13">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3">
         <v>43441</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="13">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3">
         <v>43441</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="13">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3">
         <v>43441</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="13">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
         <v>43441</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43441</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="3">
         <v>43441</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"提示"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"一般"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"致命"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"严重"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"前台,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"提示,一般,严重,致命"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="8970"/>
+    <workbookView windowWidth="14640" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>索引</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>罗帆</t>
+  </si>
+  <si>
+    <t>bu与du 名称统一</t>
+  </si>
+  <si>
+    <t>事务添加删除失败</t>
+  </si>
+  <si>
+    <t>名称去重判断使用sql判重</t>
   </si>
 </sst>
 </file>
@@ -144,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +195,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,62 +246,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,11 +268,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,7 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,36 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +575,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,15 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -653,148 +655,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,7 +977,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1254,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1729,6 +1731,84 @@
       </c>
       <c r="I16" s="3">
         <v>43441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43447</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43447</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43447</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3">
+        <v>43447</v>
       </c>
     </row>
   </sheetData>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="9390"/>
+    <workbookView windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>索引</t>
   </si>
@@ -142,7 +142,13 @@
     <t>bu与du 名称统一</t>
   </si>
   <si>
+    <t>已解决</t>
+  </si>
+  <si>
     <t>事务添加删除失败</t>
+  </si>
+  <si>
+    <t>待浮现</t>
   </si>
   <si>
     <t>名称去重判断使用sql判重</t>
@@ -1259,7 +1265,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1746,6 +1752,9 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1767,10 +1776,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -1793,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>

--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00.git\CodeCompetition\04.Doc\02.编码\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>索引</t>
   </si>
@@ -148,23 +153,46 @@
     <t>事务添加删除失败</t>
   </si>
   <si>
-    <t>待浮现</t>
-  </si>
-  <si>
     <t>名称去重判断使用sql判重</t>
+  </si>
+  <si>
+    <t>待复现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>级联如何能保证不合逻辑的变更，比如C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>U下挂SPM</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时遗留</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙晓光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,151 +221,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,194 +247,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -560,253 +271,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,69 +316,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -941,8 +358,69 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -963,13 +441,16 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1256,19 +737,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
@@ -1282,7 +763,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="99" spans="1:10">
+    <row r="2" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -1346,7 +827,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1374,7 +855,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1402,7 +883,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" ht="33" spans="1:10">
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1430,7 +911,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" ht="33" spans="1:10">
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1458,7 +939,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1486,7 +967,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1514,7 +995,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1542,19 +1023,20 @@
       </c>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1567,289 +1049,332 @@
       <c r="I10" s="13">
         <v>43431</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="13">
         <v>43435</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="13">
         <v>43441</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="13">
         <v>43441</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="13">
         <v>43441</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="13">
         <v>43441</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="13">
         <v>43441</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="13">
         <v>43441</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="13">
         <v>43441</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="13">
         <v>43441</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="13">
         <v>43441</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="13">
         <v>43441</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="13">
         <v>43447</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="13">
         <v>43447</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43447</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="13">
+        <v>43447</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="13">
         <v>43447</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="13">
         <v>43447</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3">
-        <v>43447</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="3">
-        <v>43447</v>
-      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43455</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"提示"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"一般"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"致命"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"严重"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"提示"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"前台,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"提示,一般,严重,致命"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
+++ b/04.Doc/02.编码/骨干管理系统_路人甲_检视问题记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>索引</t>
   </si>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>李剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -952,7 +956,9 @@
       <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
